--- a/001_General_Spec/VG_Oveview_Information.xlsx
+++ b/001_General_Spec/VG_Oveview_Information.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10220" windowHeight="4620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10220" windowHeight="4620" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="VG" sheetId="1" r:id="rId1"/>
+    <sheet name="Rev. History" sheetId="2" r:id="rId1"/>
+    <sheet name="Symbol_Acronym" sheetId="1" r:id="rId2"/>
+    <sheet name="Assignment" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="125">
   <si>
     <t>Ký hiệu hoặc viết tắt</t>
   </si>
@@ -267,13 +269,150 @@
   </si>
   <si>
     <t>TT</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>2020.04.04</t>
+  </si>
+  <si>
+    <t>QuanNguyen</t>
+  </si>
+  <si>
+    <t>Add the new sheet "Assigment"</t>
+  </si>
+  <si>
+    <t>Module/Part</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Verifier</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t>RTL</t>
+  </si>
+  <si>
+    <t>Trial Syn</t>
+  </si>
+  <si>
+    <t>UT test</t>
+  </si>
+  <si>
+    <t>Sys test</t>
+  </si>
+  <si>
+    <t>Synthesis</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>VG CPU core</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Open source</t>
+  </si>
+  <si>
+    <t>Need to modify</t>
+  </si>
+  <si>
+    <t>APB bus</t>
+  </si>
+  <si>
+    <t>Quartus II</t>
+  </si>
+  <si>
+    <t>Seft-develop</t>
+  </si>
+  <si>
+    <t>AXI bus</t>
+  </si>
+  <si>
+    <t>Boot and Secure</t>
+  </si>
+  <si>
+    <t>Debug hardware</t>
+  </si>
+  <si>
+    <t>VG (Vanguard) PROJECT</t>
+  </si>
+  <si>
+    <t>Ngọc Quỳnh
+Phú Quốc</t>
+  </si>
+  <si>
+    <t>Văn Thắng</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang</t>
+  </si>
+  <si>
+    <t>Quang Hưng</t>
+  </si>
+  <si>
+    <t>Nguyễn Quân</t>
+  </si>
+  <si>
+    <t>Lê Đạt</t>
+  </si>
+  <si>
+    <t>Phú Quốc
+Thế Cường
+Nguyễn Quân
+Trung Tấn</t>
+  </si>
+  <si>
+    <t>Cường tìm hiểu software debug</t>
+  </si>
+  <si>
+    <t>Trường Thọ
+Đức Hoàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh</t>
+  </si>
+  <si>
+    <t>WDT/Timer</t>
+  </si>
+  <si>
+    <t>Phước Lộc</t>
+  </si>
+  <si>
+    <t>Async Bridge</t>
+  </si>
+  <si>
+    <t>Nguyễn Phong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="13"/>
       <color theme="1"/>
@@ -293,8 +432,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,12 +449,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -331,11 +489,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,14 +519,309 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -635,10 +1097,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F6"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="3.640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.78515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -650,13 +1189,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1093,4 +1632,480 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.92578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.92578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="11"/>
+    <col min="9" max="9" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="11"/>
+    <col min="11" max="11" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.2109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:XFD3 A3:G6 A8:G8">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:XFD6 H8:J8 L8:XFD8">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:G7 A9">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:J7 M7:XFD7">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:G9">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:J9 L9:XFD9">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/001_General_Spec/VG_Oveview_Information.xlsx
+++ b/001_General_Spec/VG_Oveview_Information.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="129">
   <si>
     <t>Ký hiệu hoặc viết tắt</t>
   </si>
@@ -406,6 +406,18 @@
   </si>
   <si>
     <t>Nguyễn Phong</t>
+  </si>
+  <si>
+    <t>VGA</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>RESET</t>
   </si>
 </sst>
 </file>
@@ -550,7 +562,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1636,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1655,7 +1677,7 @@
     <col min="9" max="9" width="11" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="11"/>
     <col min="11" max="11" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.2109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.0703125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
@@ -2037,75 +2059,382 @@
       </c>
       <c r="L12" s="13"/>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:XFD3 A3:G6 A8:G8">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+  <conditionalFormatting sqref="H3:XFD3 A3:G4 B8:G8 B5:G6 A5:A29">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:XFD6 H8:J8 L8:XFD8">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:G7 A9">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+  <conditionalFormatting sqref="B7:G7">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:J7 M7:XFD7">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:G9">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:J9 L9:XFD9">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/001_General_Spec/VG_Oveview_Information.xlsx
+++ b/001_General_Spec/VG_Oveview_Information.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="131">
   <si>
     <t>Ký hiệu hoặc viết tắt</t>
   </si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t>RESET</t>
+  </si>
+  <si>
+    <t>Huỳnh Nhân</t>
+  </si>
+  <si>
+    <t>Nhựt Phú</t>
   </si>
 </sst>
 </file>
@@ -543,9 +549,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -558,161 +561,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1660,78 +1516,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.92578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.92578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="11"/>
-    <col min="9" max="9" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="11"/>
-    <col min="11" max="11" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.0703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="11"/>
+    <col min="2" max="2" width="14.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.92578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.92578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="10"/>
+    <col min="9" max="9" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="10"/>
+    <col min="11" max="11" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.0703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1739,37 +1595,37 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="I3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1777,145 +1633,145 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="13" t="s">
+      <c r="H4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="L4" s="13"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="13" t="s">
+      <c r="F5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="13" t="s">
+      <c r="F6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" s="13" t="s">
+      <c r="I7" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="12" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1923,73 +1779,73 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="13" t="s">
+      <c r="D8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="66" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="13" t="s">
+      <c r="D9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1997,440 +1853,476 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="13"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="13"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="13"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+      <c r="C23" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
+      <c r="C29" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:XFD3 A3:G4 B8:G8 B5:G6 A5:A29">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:XFD6 H8:J8 L8:XFD8">
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G7">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:J7 M7:XFD7">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:G9">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:J9 L9:XFD9">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/001_General_Spec/VG_Oveview_Information.xlsx
+++ b/001_General_Spec/VG_Oveview_Information.xlsx
@@ -16,6 +16,9 @@
     <sheet name="Symbol_Acronym" sheetId="1" r:id="rId2"/>
     <sheet name="Assignment" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Assignment!$A$1:$L$30</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="133">
   <si>
     <t>Ký hiệu hoặc viết tắt</t>
   </si>
@@ -425,11 +428,17 @@
   <si>
     <t>Nhựt Phú</t>
   </si>
+  <si>
+    <t>Trần Trường</t>
+  </si>
+  <si>
+    <t>Trung Dương</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="13"/>
@@ -1514,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1922,7 +1931,9 @@
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -2256,6 +2267,26 @@
         <v>106</v>
       </c>
       <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
